--- a/4_Data_sql/data/data.xlsx
+++ b/4_Data_sql/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sugarkhuu\Documents\python\repo\Introduction_Python\week2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\python\repo\Introduction_Python\4_Data_sql\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73294ED-E0E8-4CC0-8E47-7BD3AE8AD1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FD8C08-4C43-4455-9A55-17D95E2FEB76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{489879BE-C2A9-4EAA-8795-529B20F48590}"/>
+    <workbookView xWindow="180" yWindow="696" windowWidth="22440" windowHeight="11688" xr2:uid="{489879BE-C2A9-4EAA-8795-529B20F48590}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Suren</t>
   </si>
@@ -124,12 +117,6 @@
     <t>AR91</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>firstName</t>
   </si>
   <si>
@@ -142,28 +129,7 @@
     <t>age</t>
   </si>
   <si>
-    <t>yearsInCompany</t>
-  </si>
-  <si>
-    <t>salary</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>startDate</t>
-  </si>
-  <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>politicalView</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>right</t>
   </si>
 </sst>
 </file>
@@ -199,9 +165,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,53 +481,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41835BD0-3C82-408D-8043-3A3A247760FB}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -578,23 +526,8 @@
       <c r="E2">
         <v>18</v>
       </c>
-      <c r="F2">
-        <v>0.5</v>
-      </c>
-      <c r="G2">
-        <v>1.5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="1">
-        <v>43964</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -610,23 +543,8 @@
       <c r="E3">
         <v>23</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>1.7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="1">
-        <v>40736</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -642,23 +560,8 @@
       <c r="E4">
         <v>35</v>
       </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>1.9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1">
-        <v>42900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -674,23 +577,8 @@
       <c r="E5">
         <v>42</v>
       </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1.6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1">
-        <v>43784</v>
-      </c>
-      <c r="J5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -706,23 +594,8 @@
       <c r="E6">
         <v>32</v>
       </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="1">
-        <v>41299</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -738,23 +611,8 @@
       <c r="E7">
         <v>25</v>
       </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>2.1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="1">
-        <v>43163</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -770,23 +628,8 @@
       <c r="E8">
         <v>29</v>
       </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>1.79</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="1">
-        <v>42882</v>
-      </c>
-      <c r="J8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -802,23 +645,8 @@
       <c r="E9">
         <v>19</v>
       </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>2.4</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="1">
-        <v>42202</v>
-      </c>
-      <c r="J9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -834,23 +662,8 @@
       <c r="E10">
         <v>24</v>
       </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>1.3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="1">
-        <v>43681</v>
-      </c>
-      <c r="J10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -865,21 +678,6 @@
       </c>
       <c r="E11">
         <v>30</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.5</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="1">
-        <v>44013</v>
-      </c>
-      <c r="J11" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
